--- a/tabular/Africa2miss.xlsx
+++ b/tabular/Africa2miss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3395E66C-D953-5148-97A9-A99BE043C795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E62738-757A-8B46-A69E-21C78471DDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="24720" windowHeight="27400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282181B-86D7-41C4-9A4A-20A88B11F481}">
   <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:AF105"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H18" sqref="D18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tabular/Africa2miss.xlsx
+++ b/tabular/Africa2miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E62738-757A-8B46-A69E-21C78471DDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D1AF53-2B33-4D4A-AEA8-35BD4C9EC5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="24720" windowHeight="27400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="48380" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="424">
   <si>
     <t>sequence.sequenceID</t>
   </si>
@@ -1220,13 +1220,85 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>recordID</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>alignment_name</t>
+  </si>
+  <si>
+    <t>alignment_displayName</t>
+  </si>
+  <si>
+    <t>m49_country.id</t>
+  </si>
+  <si>
+    <t>m49_country.display_name</t>
+  </si>
+  <si>
+    <t>gb_place_sampled</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>earliest_collection_year</t>
+  </si>
+  <si>
+    <t>latest_collection_year</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>gb_pubmed_id</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>country_update</t>
+  </si>
+  <si>
+    <t>collection_year_edit</t>
+  </si>
+  <si>
+    <t>collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1263,8 +1335,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,6 +1391,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1426,7 +1512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1453,11 +1539,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1793,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A282181B-86D7-41C4-9A4A-20A88B11F481}">
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H18" sqref="D18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AR31" sqref="AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1821,203 +1950,205 @@
     <col min="31" max="31" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="S1" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="U1" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="28" t="s">
         <v>390</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2">
-        <v>2018</v>
-      </c>
-      <c r="K2">
-        <v>11922</v>
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="U2" s="8">
-        <v>1989</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="W2" s="8">
-        <v>1989</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>1989</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="8">
-        <v>29357361</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>391</v>
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>226</v>
@@ -2041,76 +2172,76 @@
         <v>228</v>
       </c>
       <c r="J3">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="K3">
-        <v>2091</v>
+        <v>11922</v>
       </c>
       <c r="L3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N3" t="s">
         <v>228</v>
       </c>
       <c r="O3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S3" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>228</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U3" s="11">
-        <v>1990</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="W3" s="11">
-        <v>1990</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>1990</v>
-      </c>
-      <c r="Z3" s="12" t="s">
+      <c r="U3" s="8">
+        <v>1989</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1989</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1989</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>392</v>
+      <c r="AB3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="8">
+        <v>29357361</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>226</v>
@@ -2152,58 +2283,58 @@
         <v>256</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U4" s="11">
-        <v>1986</v>
-      </c>
-      <c r="V4" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W4" s="11">
-        <v>1986</v>
-      </c>
-      <c r="X4" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y4" s="13">
-        <v>1986</v>
-      </c>
-      <c r="Z4" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="Z4" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB4" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15" t="s">
+      <c r="AB4" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AE4" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>226</v>
@@ -2245,15 +2376,15 @@
         <v>256</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S5" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -2262,41 +2393,41 @@
       <c r="U5" s="11">
         <v>1986</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W5" s="11">
         <v>1986</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y5" s="13">
         <v>1986</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12" t="s">
+      <c r="AB5" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>226</v>
@@ -2323,7 +2454,7 @@
         <v>2001</v>
       </c>
       <c r="K6">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="L6" t="s">
         <v>242</v>
@@ -2338,61 +2469,58 @@
         <v>256</v>
       </c>
       <c r="P6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S6" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U6" s="11">
-        <v>1988</v>
-      </c>
-      <c r="V6" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W6" s="11">
-        <v>1988</v>
-      </c>
-      <c r="X6" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y6" s="13">
-        <v>1988</v>
-      </c>
-      <c r="Z6" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AA6" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15" t="s">
+      <c r="AA6" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="AE6" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>372</v>
+      <c r="AE6" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>226</v>
@@ -2434,63 +2562,61 @@
         <v>256</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S7" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S7" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U7" s="11">
-        <v>1986</v>
-      </c>
-      <c r="V7" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="V7" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W7" s="11">
-        <v>1986</v>
-      </c>
-      <c r="X7" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y7" s="13">
-        <v>1986</v>
-      </c>
-      <c r="Z7" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="Z7" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AA7" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AA7" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="AE7" s="14" t="s">
+      <c r="AE7" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>226</v>
@@ -2499,94 +2625,96 @@
         <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
         <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J8">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="K8">
-        <v>1575</v>
+        <v>2090</v>
       </c>
       <c r="L8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N8" t="s">
         <v>228</v>
       </c>
       <c r="O8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P8" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S8" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>2007</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE8" s="16" t="s">
+      <c r="U8" s="11">
+        <v>1986</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="W8" s="11">
+        <v>1986</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>1986</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE8" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>226</v>
@@ -2595,10 +2723,10 @@
         <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
         <v>228</v>
@@ -2628,49 +2756,49 @@
         <v>259</v>
       </c>
       <c r="P9" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S9" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S9" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W9" s="12" t="s">
+      <c r="V9" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W9" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y9" s="12">
+      <c r="X9" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y9" s="15">
         <v>2007</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="s">
+      <c r="AB9" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE9" s="14" t="s">
+      <c r="AE9" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF9" t="s">
@@ -2679,10 +2807,10 @@
     </row>
     <row r="10" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>226</v>
@@ -2709,13 +2837,13 @@
         <v>2007</v>
       </c>
       <c r="K10">
-        <v>1353</v>
+        <v>1575</v>
       </c>
       <c r="L10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N10" t="s">
         <v>228</v>
@@ -2724,49 +2852,49 @@
         <v>259</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S10" s="15" t="s">
+      <c r="R10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="V10" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W10" s="15" t="s">
+      <c r="V10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W10" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="X10" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y10" s="15">
+      <c r="X10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y10" s="12">
         <v>2007</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15" t="s">
+      <c r="AB10" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AE10" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF10" t="s">
@@ -2775,10 +2903,10 @@
     </row>
     <row r="11" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>226</v>
@@ -2787,22 +2915,22 @@
         <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J11">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K11">
         <v>1353</v>
@@ -2820,49 +2948,49 @@
         <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S11" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U11" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>2005</v>
-      </c>
-      <c r="Z11" s="12" t="s">
+      <c r="U11" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>2007</v>
+      </c>
+      <c r="Z11" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12" t="s">
+      <c r="AB11" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE11" s="14" t="s">
+      <c r="AE11" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF11" t="s">
@@ -2871,10 +2999,10 @@
     </row>
     <row r="12" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>226</v>
@@ -2892,13 +3020,13 @@
         <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J12">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K12">
         <v>1353</v>
@@ -2916,49 +3044,49 @@
         <v>259</v>
       </c>
       <c r="P12" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="R12" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S12" s="15" t="s">
+      <c r="R12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S12" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>2006</v>
-      </c>
-      <c r="Z12" s="15" t="s">
+      <c r="U12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>2005</v>
+      </c>
+      <c r="Z12" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB12" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15" t="s">
+      <c r="AB12" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF12" t="s">
@@ -2967,10 +3095,10 @@
     </row>
     <row r="13" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>226</v>
@@ -3012,49 +3140,49 @@
         <v>259</v>
       </c>
       <c r="P13" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S13" s="12" t="s">
+      <c r="R13" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S13" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="U13" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W13" s="12" t="s">
+      <c r="V13" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W13" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="X13" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y13" s="12">
+      <c r="X13" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y13" s="15">
         <v>2006</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12" t="s">
+      <c r="AB13" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE13" s="14" t="s">
+      <c r="AE13" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF13" t="s">
@@ -3063,10 +3191,10 @@
     </row>
     <row r="14" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>226</v>
@@ -3075,31 +3203,31 @@
         <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
         <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J14">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K14">
         <v>1353</v>
       </c>
       <c r="L14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M14" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N14" t="s">
         <v>228</v>
@@ -3108,49 +3236,49 @@
         <v>259</v>
       </c>
       <c r="P14" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S14" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U14" s="11">
-        <v>2007</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="W14" s="11">
-        <v>2007</v>
-      </c>
-      <c r="X14" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>2007</v>
-      </c>
-      <c r="Z14" s="15" t="s">
-        <v>393</v>
+      <c r="U14" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>2006</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB14" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15" t="s">
+      <c r="AB14" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AE14" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF14" t="s">
@@ -3159,10 +3287,10 @@
     </row>
     <row r="15" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>226</v>
@@ -3171,31 +3299,31 @@
         <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
         <v>228</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J15">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K15">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="L15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N15" t="s">
         <v>228</v>
@@ -3204,49 +3332,49 @@
         <v>259</v>
       </c>
       <c r="P15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S15" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S15" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U15" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y15" s="12">
+      <c r="U15" s="11">
         <v>2007</v>
       </c>
-      <c r="Z15" s="12" t="s">
-        <v>392</v>
+      <c r="V15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="W15" s="11">
+        <v>2007</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>2007</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB15" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12" t="s">
+      <c r="AB15" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE15" s="14" t="s">
+      <c r="AE15" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF15" t="s">
@@ -3255,10 +3383,10 @@
     </row>
     <row r="16" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>226</v>
@@ -3300,49 +3428,49 @@
         <v>259</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q16" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="R16" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S16" s="15" t="s">
+      <c r="R16" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="V16" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W16" s="15" t="s">
+      <c r="V16" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="X16" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y16" s="15">
+      <c r="X16" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y16" s="12">
         <v>2007</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="Z16" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB16" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15" t="s">
+      <c r="AB16" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AE16" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF16" t="s">
@@ -3351,10 +3479,10 @@
     </row>
     <row r="17" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>226</v>
@@ -3396,49 +3524,49 @@
         <v>259</v>
       </c>
       <c r="P17" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q17" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S17" s="12" t="s">
+      <c r="R17" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S17" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W17" s="12" t="s">
+      <c r="V17" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W17" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X17" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y17" s="12">
+      <c r="X17" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y17" s="15">
         <v>2007</v>
       </c>
-      <c r="Z17" s="12" t="s">
+      <c r="Z17" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB17" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12" t="s">
+      <c r="AB17" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE17" s="14" t="s">
+      <c r="AE17" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF17" t="s">
@@ -3447,10 +3575,10 @@
     </row>
     <row r="18" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>226</v>
@@ -3459,22 +3587,22 @@
         <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
         <v>228</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K18">
         <v>1350</v>
@@ -3492,49 +3620,49 @@
         <v>259</v>
       </c>
       <c r="P18" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S18" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S18" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U18" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="V18" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>2005</v>
-      </c>
-      <c r="Z18" s="15" t="s">
+      <c r="U18" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2007</v>
+      </c>
+      <c r="Z18" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA18" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB18" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15" t="s">
+      <c r="AB18" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AE18" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF18" t="s">
@@ -3543,10 +3671,10 @@
     </row>
     <row r="19" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>226</v>
@@ -3588,49 +3716,49 @@
         <v>259</v>
       </c>
       <c r="P19" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q19" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q19" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S19" s="12" t="s">
+      <c r="R19" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S19" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="V19" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W19" s="12" t="s">
+      <c r="V19" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W19" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X19" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y19" s="12">
+      <c r="X19" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y19" s="15">
         <v>2005</v>
       </c>
-      <c r="Z19" s="12" t="s">
+      <c r="Z19" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB19" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12" t="s">
+      <c r="AB19" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE19" s="14" t="s">
+      <c r="AE19" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF19" t="s">
@@ -3639,10 +3767,10 @@
     </row>
     <row r="20" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>226</v>
@@ -3660,13 +3788,13 @@
         <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J20">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K20">
         <v>1350</v>
@@ -3684,49 +3812,49 @@
         <v>259</v>
       </c>
       <c r="P20" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q20" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q20" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S20" s="15" t="s">
+      <c r="R20" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S20" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y20" s="15">
-        <v>2006</v>
-      </c>
-      <c r="Z20" s="15" t="s">
+      <c r="U20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>2005</v>
+      </c>
+      <c r="Z20" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB20" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15" t="s">
+      <c r="AB20" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE20" s="16" t="s">
+      <c r="AE20" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF20" t="s">
@@ -3735,10 +3863,10 @@
     </row>
     <row r="21" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
         <v>226</v>
@@ -3756,13 +3884,13 @@
         <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J21">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K21">
         <v>1350</v>
@@ -3780,49 +3908,49 @@
         <v>259</v>
       </c>
       <c r="P21" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q21" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q21" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="R21" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S21" s="12" t="s">
+      <c r="R21" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S21" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U21" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="V21" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y21" s="12">
-        <v>2007</v>
-      </c>
-      <c r="Z21" s="12" t="s">
+      <c r="U21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>2006</v>
+      </c>
+      <c r="Z21" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB21" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12" t="s">
+      <c r="AB21" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE21" s="14" t="s">
+      <c r="AE21" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF21" t="s">
@@ -3831,10 +3959,10 @@
     </row>
     <row r="22" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -3843,28 +3971,28 @@
         <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
         <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="J22">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K22">
         <v>1350</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
         <v>254</v>
@@ -3873,64 +4001,64 @@
         <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P22" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S22" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="V22" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W22" s="24">
-        <v>2005</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>2006</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>393</v>
+      <c r="U22" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>2007</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="AA22" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB22" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AB22" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE22" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
         <v>226</v>
@@ -3972,15 +4100,15 @@
         <v>260</v>
       </c>
       <c r="P23" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q23" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R23" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S23" s="12" t="s">
+      <c r="R23" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S23" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T23" s="6" t="s">
@@ -3989,7 +4117,7 @@
       <c r="U23" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W23" s="24">
@@ -4007,14 +4135,14 @@
       <c r="AA23" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB23" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12" t="s">
+      <c r="AB23" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE23" s="14" t="s">
+      <c r="AE23" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF23" t="s">
@@ -4023,10 +4151,10 @@
     </row>
     <row r="24" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>226</v>
@@ -4068,15 +4196,15 @@
         <v>260</v>
       </c>
       <c r="P24" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q24" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q24" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S24" s="15" t="s">
+      <c r="R24" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S24" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T24" s="6" t="s">
@@ -4085,7 +4213,7 @@
       <c r="U24" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W24" s="24">
@@ -4103,14 +4231,14 @@
       <c r="AA24" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB24" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15" t="s">
+      <c r="AB24" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE24" s="16" t="s">
+      <c r="AE24" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF24" t="s">
@@ -4119,10 +4247,10 @@
     </row>
     <row r="25" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
         <v>226</v>
@@ -4164,15 +4292,15 @@
         <v>260</v>
       </c>
       <c r="P25" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q25" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S25" s="12" t="s">
+      <c r="R25" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T25" s="6" t="s">
@@ -4181,7 +4309,7 @@
       <c r="U25" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="12" t="s">
+      <c r="V25" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W25" s="24">
@@ -4199,14 +4327,14 @@
       <c r="AA25" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB25" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12" t="s">
+      <c r="AB25" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE25" s="14" t="s">
+      <c r="AE25" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF25" t="s">
@@ -4215,10 +4343,10 @@
     </row>
     <row r="26" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
         <v>226</v>
@@ -4260,15 +4388,15 @@
         <v>260</v>
       </c>
       <c r="P26" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q26" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S26" s="15" t="s">
+      <c r="R26" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S26" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T26" s="6" t="s">
@@ -4277,7 +4405,7 @@
       <c r="U26" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W26" s="24">
@@ -4293,16 +4421,16 @@
         <v>393</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB26" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AE26" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF26" t="s">
@@ -4311,10 +4439,10 @@
     </row>
     <row r="27" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>226</v>
@@ -4356,15 +4484,15 @@
         <v>260</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q27" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S27" s="12" t="s">
+      <c r="R27" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S27" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T27" s="6" t="s">
@@ -4373,7 +4501,7 @@
       <c r="U27" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V27" s="12" t="s">
+      <c r="V27" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W27" s="24">
@@ -4389,16 +4517,16 @@
         <v>393</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB27" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB27" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE27" s="14" t="s">
+      <c r="AE27" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF27" t="s">
@@ -4407,10 +4535,10 @@
     </row>
     <row r="28" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>226</v>
@@ -4452,15 +4580,15 @@
         <v>260</v>
       </c>
       <c r="P28" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q28" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q28" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R28" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S28" s="15" t="s">
+      <c r="R28" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S28" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T28" s="6" t="s">
@@ -4469,7 +4597,7 @@
       <c r="U28" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="15" t="s">
+      <c r="V28" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W28" s="24">
@@ -4487,14 +4615,14 @@
       <c r="AA28" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB28" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15" t="s">
+      <c r="AB28" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AE28" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF28" t="s">
@@ -4503,10 +4631,10 @@
     </row>
     <row r="29" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>226</v>
@@ -4548,15 +4676,15 @@
         <v>260</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q29" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q29" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R29" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S29" s="12" t="s">
+      <c r="R29" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S29" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T29" s="6" t="s">
@@ -4565,7 +4693,7 @@
       <c r="U29" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W29" s="24">
@@ -4583,14 +4711,14 @@
       <c r="AA29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB29" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12" t="s">
+      <c r="AB29" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE29" s="14" t="s">
+      <c r="AE29" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF29" t="s">
@@ -4599,10 +4727,10 @@
     </row>
     <row r="30" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
         <v>226</v>
@@ -4644,15 +4772,15 @@
         <v>260</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q30" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R30" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S30" s="15" t="s">
+      <c r="R30" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S30" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T30" s="6" t="s">
@@ -4661,7 +4789,7 @@
       <c r="U30" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V30" s="15" t="s">
+      <c r="V30" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W30" s="24">
@@ -4679,14 +4807,14 @@
       <c r="AA30" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB30" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15" t="s">
+      <c r="AB30" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE30" s="16" t="s">
+      <c r="AE30" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF30" t="s">
@@ -4695,10 +4823,10 @@
     </row>
     <row r="31" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
         <v>226</v>
@@ -4740,15 +4868,15 @@
         <v>260</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q31" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q31" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R31" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S31" s="12" t="s">
+      <c r="R31" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S31" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T31" s="6" t="s">
@@ -4757,7 +4885,7 @@
       <c r="U31" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V31" s="12" t="s">
+      <c r="V31" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W31" s="24">
@@ -4775,14 +4903,14 @@
       <c r="AA31" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB31" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12" t="s">
+      <c r="AB31" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE31" s="14" t="s">
+      <c r="AE31" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF31" t="s">
@@ -4791,10 +4919,10 @@
     </row>
     <row r="32" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
         <v>226</v>
@@ -4836,15 +4964,15 @@
         <v>260</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q32" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R32" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S32" s="15" t="s">
+      <c r="R32" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S32" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T32" s="6" t="s">
@@ -4853,7 +4981,7 @@
       <c r="U32" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V32" s="15" t="s">
+      <c r="V32" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W32" s="24">
@@ -4871,14 +4999,14 @@
       <c r="AA32" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB32" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15" t="s">
+      <c r="AB32" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE32" s="16" t="s">
+      <c r="AE32" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF32" t="s">
@@ -4887,10 +5015,10 @@
     </row>
     <row r="33" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
         <v>226</v>
@@ -4932,15 +5060,15 @@
         <v>260</v>
       </c>
       <c r="P33" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q33" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q33" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R33" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S33" s="12" t="s">
+      <c r="R33" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S33" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T33" s="6" t="s">
@@ -4949,7 +5077,7 @@
       <c r="U33" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V33" s="12" t="s">
+      <c r="V33" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W33" s="24">
@@ -4967,14 +5095,14 @@
       <c r="AA33" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB33" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12" t="s">
+      <c r="AB33" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE33" s="14" t="s">
+      <c r="AE33" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF33" t="s">
@@ -4983,10 +5111,10 @@
     </row>
     <row r="34" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>226</v>
@@ -5028,15 +5156,15 @@
         <v>260</v>
       </c>
       <c r="P34" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q34" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q34" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R34" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S34" s="15" t="s">
+      <c r="R34" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S34" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T34" s="6" t="s">
@@ -5045,7 +5173,7 @@
       <c r="U34" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="15" t="s">
+      <c r="V34" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W34" s="24">
@@ -5063,14 +5191,14 @@
       <c r="AA34" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB34" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15" t="s">
+      <c r="AB34" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE34" s="16" t="s">
+      <c r="AE34" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF34" t="s">
@@ -5079,10 +5207,10 @@
     </row>
     <row r="35" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>226</v>
@@ -5124,15 +5252,15 @@
         <v>260</v>
       </c>
       <c r="P35" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q35" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q35" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R35" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S35" s="12" t="s">
+      <c r="R35" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S35" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T35" s="6" t="s">
@@ -5141,7 +5269,7 @@
       <c r="U35" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W35" s="24">
@@ -5159,14 +5287,14 @@
       <c r="AA35" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB35" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12" t="s">
+      <c r="AB35" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE35" s="14" t="s">
+      <c r="AE35" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF35" t="s">
@@ -5175,10 +5303,10 @@
     </row>
     <row r="36" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>226</v>
@@ -5220,15 +5348,15 @@
         <v>260</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q36" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R36" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S36" s="15" t="s">
+      <c r="R36" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S36" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T36" s="6" t="s">
@@ -5237,7 +5365,7 @@
       <c r="U36" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V36" s="15" t="s">
+      <c r="V36" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W36" s="24">
@@ -5255,14 +5383,14 @@
       <c r="AA36" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB36" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15" t="s">
+      <c r="AB36" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE36" s="16" t="s">
+      <c r="AE36" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF36" t="s">
@@ -5271,10 +5399,10 @@
     </row>
     <row r="37" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>226</v>
@@ -5316,15 +5444,15 @@
         <v>260</v>
       </c>
       <c r="P37" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q37" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q37" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R37" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S37" s="12" t="s">
+      <c r="R37" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S37" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T37" s="6" t="s">
@@ -5333,7 +5461,7 @@
       <c r="U37" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V37" s="12" t="s">
+      <c r="V37" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W37" s="24">
@@ -5351,14 +5479,14 @@
       <c r="AA37" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB37" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12" t="s">
+      <c r="AB37" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE37" s="14" t="s">
+      <c r="AE37" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF37" t="s">
@@ -5367,10 +5495,10 @@
     </row>
     <row r="38" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
         <v>226</v>
@@ -5412,15 +5540,15 @@
         <v>260</v>
       </c>
       <c r="P38" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q38" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q38" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R38" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S38" s="15" t="s">
+      <c r="R38" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S38" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T38" s="6" t="s">
@@ -5429,7 +5557,7 @@
       <c r="U38" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V38" s="15" t="s">
+      <c r="V38" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W38" s="24">
@@ -5447,14 +5575,14 @@
       <c r="AA38" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB38" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15" t="s">
+      <c r="AB38" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="16" t="s">
+      <c r="AE38" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF38" t="s">
@@ -5463,10 +5591,10 @@
     </row>
     <row r="39" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>226</v>
@@ -5508,15 +5636,15 @@
         <v>260</v>
       </c>
       <c r="P39" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q39" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q39" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R39" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S39" s="12" t="s">
+      <c r="R39" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S39" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T39" s="6" t="s">
@@ -5525,7 +5653,7 @@
       <c r="U39" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V39" s="12" t="s">
+      <c r="V39" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W39" s="24">
@@ -5543,14 +5671,14 @@
       <c r="AA39" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB39" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12" t="s">
+      <c r="AB39" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE39" s="14" t="s">
+      <c r="AE39" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF39" t="s">
@@ -5559,10 +5687,10 @@
     </row>
     <row r="40" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>226</v>
@@ -5604,15 +5732,15 @@
         <v>260</v>
       </c>
       <c r="P40" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q40" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q40" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R40" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S40" s="15" t="s">
+      <c r="R40" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S40" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T40" s="6" t="s">
@@ -5621,7 +5749,7 @@
       <c r="U40" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V40" s="15" t="s">
+      <c r="V40" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W40" s="24">
@@ -5639,14 +5767,14 @@
       <c r="AA40" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB40" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15" t="s">
+      <c r="AB40" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE40" s="16" t="s">
+      <c r="AE40" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF40" t="s">
@@ -5655,10 +5783,10 @@
     </row>
     <row r="41" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
         <v>226</v>
@@ -5700,15 +5828,15 @@
         <v>260</v>
       </c>
       <c r="P41" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q41" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q41" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R41" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S41" s="12" t="s">
+      <c r="R41" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S41" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T41" s="6" t="s">
@@ -5717,7 +5845,7 @@
       <c r="U41" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V41" s="12" t="s">
+      <c r="V41" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W41" s="24">
@@ -5735,14 +5863,14 @@
       <c r="AA41" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB41" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12" t="s">
+      <c r="AB41" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE41" s="14" t="s">
+      <c r="AE41" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF41" t="s">
@@ -5751,10 +5879,10 @@
     </row>
     <row r="42" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>226</v>
@@ -5796,15 +5924,15 @@
         <v>260</v>
       </c>
       <c r="P42" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q42" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q42" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R42" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S42" s="15" t="s">
+      <c r="R42" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S42" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T42" s="6" t="s">
@@ -5813,7 +5941,7 @@
       <c r="U42" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V42" s="15" t="s">
+      <c r="V42" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W42" s="24">
@@ -5831,14 +5959,14 @@
       <c r="AA42" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB42" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15" t="s">
+      <c r="AB42" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE42" s="16" t="s">
+      <c r="AE42" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF42" t="s">
@@ -5847,10 +5975,10 @@
     </row>
     <row r="43" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
         <v>226</v>
@@ -5892,15 +6020,15 @@
         <v>260</v>
       </c>
       <c r="P43" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q43" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q43" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R43" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S43" s="12" t="s">
+      <c r="R43" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S43" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T43" s="6" t="s">
@@ -5909,7 +6037,7 @@
       <c r="U43" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V43" s="12" t="s">
+      <c r="V43" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W43" s="24">
@@ -5927,14 +6055,14 @@
       <c r="AA43" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB43" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12" t="s">
+      <c r="AB43" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE43" s="14" t="s">
+      <c r="AE43" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF43" t="s">
@@ -5943,10 +6071,10 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>226</v>
@@ -5988,15 +6116,15 @@
         <v>260</v>
       </c>
       <c r="P44" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q44" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q44" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S44" s="15" t="s">
+      <c r="R44" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S44" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T44" s="6" t="s">
@@ -6005,7 +6133,7 @@
       <c r="U44" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V44" s="15" t="s">
+      <c r="V44" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W44" s="24">
@@ -6023,14 +6151,14 @@
       <c r="AA44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB44" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15" t="s">
+      <c r="AB44" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE44" s="16" t="s">
+      <c r="AE44" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF44" t="s">
@@ -6039,10 +6167,10 @@
     </row>
     <row r="45" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
         <v>226</v>
@@ -6084,15 +6212,15 @@
         <v>260</v>
       </c>
       <c r="P45" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q45" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q45" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R45" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S45" s="12" t="s">
+      <c r="R45" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S45" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T45" s="6" t="s">
@@ -6101,7 +6229,7 @@
       <c r="U45" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V45" s="12" t="s">
+      <c r="V45" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W45" s="24">
@@ -6119,14 +6247,14 @@
       <c r="AA45" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB45" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12" t="s">
+      <c r="AB45" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE45" s="14" t="s">
+      <c r="AE45" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF45" t="s">
@@ -6135,10 +6263,10 @@
     </row>
     <row r="46" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
         <v>226</v>
@@ -6180,15 +6308,15 @@
         <v>260</v>
       </c>
       <c r="P46" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q46" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q46" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R46" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S46" s="15" t="s">
+      <c r="R46" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S46" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T46" s="6" t="s">
@@ -6197,7 +6325,7 @@
       <c r="U46" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V46" s="15" t="s">
+      <c r="V46" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W46" s="24">
@@ -6215,14 +6343,14 @@
       <c r="AA46" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB46" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15" t="s">
+      <c r="AB46" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE46" s="16" t="s">
+      <c r="AE46" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF46" t="s">
@@ -6231,10 +6359,10 @@
     </row>
     <row r="47" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
         <v>226</v>
@@ -6276,15 +6404,15 @@
         <v>260</v>
       </c>
       <c r="P47" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q47" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q47" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R47" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S47" s="12" t="s">
+      <c r="R47" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S47" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T47" s="6" t="s">
@@ -6293,7 +6421,7 @@
       <c r="U47" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V47" s="12" t="s">
+      <c r="V47" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W47" s="24">
@@ -6311,14 +6439,14 @@
       <c r="AA47" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12" t="s">
+      <c r="AB47" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE47" s="14" t="s">
+      <c r="AE47" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF47" t="s">
@@ -6327,10 +6455,10 @@
     </row>
     <row r="48" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
         <v>226</v>
@@ -6372,15 +6500,15 @@
         <v>260</v>
       </c>
       <c r="P48" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q48" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q48" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R48" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S48" s="15" t="s">
+      <c r="R48" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S48" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T48" s="6" t="s">
@@ -6389,7 +6517,7 @@
       <c r="U48" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V48" s="15" t="s">
+      <c r="V48" s="12" t="s">
         <v>392</v>
       </c>
       <c r="W48" s="24">
@@ -6407,14 +6535,14 @@
       <c r="AA48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB48" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15" t="s">
+      <c r="AB48" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE48" s="16" t="s">
+      <c r="AE48" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF48" t="s">
@@ -6423,10 +6551,10 @@
     </row>
     <row r="49" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
         <v>226</v>
@@ -6468,15 +6596,15 @@
         <v>260</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q49" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q49" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R49" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S49" s="12" t="s">
+      <c r="R49" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S49" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T49" s="6" t="s">
@@ -6485,7 +6613,7 @@
       <c r="U49" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="V49" s="12" t="s">
+      <c r="V49" s="15" t="s">
         <v>392</v>
       </c>
       <c r="W49" s="24">
@@ -6503,14 +6631,14 @@
       <c r="AA49" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB49" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12" t="s">
+      <c r="AB49" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE49" s="14" t="s">
+      <c r="AE49" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF49" t="s">
@@ -6519,10 +6647,10 @@
     </row>
     <row r="50" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
         <v>226</v>
@@ -6564,58 +6692,61 @@
         <v>260</v>
       </c>
       <c r="P50" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q50" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R50" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S50" s="15" t="s">
+      <c r="R50" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S50" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U50" s="11">
+      <c r="U50" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W50" s="24">
+        <v>2005</v>
+      </c>
+      <c r="X50" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y50" s="23">
         <v>2006</v>
       </c>
-      <c r="V50" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="W50" s="11">
-        <v>2006</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y50" s="13">
-        <v>2006</v>
-      </c>
-      <c r="Z50" s="15" t="s">
+      <c r="Z50" s="22" t="s">
         <v>393</v>
       </c>
       <c r="AA50" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB50" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="15" t="s">
+      <c r="AB50" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE50" s="16" t="s">
-        <v>392</v>
+      <c r="AE50" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
         <v>226</v>
@@ -6657,15 +6788,15 @@
         <v>260</v>
       </c>
       <c r="P51" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q51" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q51" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R51" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S51" s="12" t="s">
+      <c r="R51" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S51" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T51" s="6" t="s">
@@ -6674,41 +6805,41 @@
       <c r="U51" s="11">
         <v>2006</v>
       </c>
-      <c r="V51" s="12" t="s">
+      <c r="V51" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W51" s="11">
         <v>2006</v>
       </c>
-      <c r="X51" s="12" t="s">
+      <c r="X51" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y51" s="13">
         <v>2006</v>
       </c>
-      <c r="Z51" s="12" t="s">
+      <c r="Z51" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA51" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB51" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12" t="s">
+      <c r="AB51" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE51" s="14" t="s">
+      <c r="AE51" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
         <v>226</v>
@@ -6750,15 +6881,15 @@
         <v>260</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q52" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q52" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R52" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S52" s="15" t="s">
+      <c r="R52" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S52" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T52" s="6" t="s">
@@ -6767,41 +6898,41 @@
       <c r="U52" s="11">
         <v>2006</v>
       </c>
-      <c r="V52" s="15" t="s">
+      <c r="V52" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W52" s="11">
         <v>2006</v>
       </c>
-      <c r="X52" s="15" t="s">
+      <c r="X52" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y52" s="13">
         <v>2006</v>
       </c>
-      <c r="Z52" s="15" t="s">
+      <c r="Z52" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA52" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB52" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="15" t="s">
+      <c r="AB52" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE52" s="16" t="s">
+      <c r="AE52" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>226</v>
@@ -6843,15 +6974,15 @@
         <v>260</v>
       </c>
       <c r="P53" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q53" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q53" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R53" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S53" s="12" t="s">
+      <c r="R53" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S53" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T53" s="6" t="s">
@@ -6860,41 +6991,41 @@
       <c r="U53" s="11">
         <v>2006</v>
       </c>
-      <c r="V53" s="12" t="s">
+      <c r="V53" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W53" s="11">
         <v>2006</v>
       </c>
-      <c r="X53" s="12" t="s">
+      <c r="X53" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y53" s="13">
         <v>2006</v>
       </c>
-      <c r="Z53" s="12" t="s">
+      <c r="Z53" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA53" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB53" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12" t="s">
+      <c r="AB53" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE53" s="14" t="s">
+      <c r="AE53" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
         <v>226</v>
@@ -6936,15 +7067,15 @@
         <v>260</v>
       </c>
       <c r="P54" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q54" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q54" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R54" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S54" s="15" t="s">
+      <c r="R54" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S54" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T54" s="6" t="s">
@@ -6953,41 +7084,41 @@
       <c r="U54" s="11">
         <v>2006</v>
       </c>
-      <c r="V54" s="15" t="s">
+      <c r="V54" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W54" s="11">
         <v>2006</v>
       </c>
-      <c r="X54" s="15" t="s">
+      <c r="X54" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y54" s="13">
         <v>2006</v>
       </c>
-      <c r="Z54" s="15" t="s">
+      <c r="Z54" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA54" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB54" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15" t="s">
+      <c r="AB54" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE54" s="16" t="s">
+      <c r="AE54" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
         <v>226</v>
@@ -7029,15 +7160,15 @@
         <v>260</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q55" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q55" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R55" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S55" s="12" t="s">
+      <c r="R55" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S55" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T55" s="6" t="s">
@@ -7046,41 +7177,41 @@
       <c r="U55" s="11">
         <v>2006</v>
       </c>
-      <c r="V55" s="12" t="s">
+      <c r="V55" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W55" s="11">
         <v>2006</v>
       </c>
-      <c r="X55" s="12" t="s">
+      <c r="X55" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y55" s="13">
         <v>2006</v>
       </c>
-      <c r="Z55" s="12" t="s">
+      <c r="Z55" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA55" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB55" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12" t="s">
+      <c r="AB55" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE55" s="14" t="s">
+      <c r="AE55" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
         <v>226</v>
@@ -7122,15 +7253,15 @@
         <v>260</v>
       </c>
       <c r="P56" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q56" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q56" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R56" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S56" s="15" t="s">
+      <c r="R56" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S56" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T56" s="6" t="s">
@@ -7139,41 +7270,41 @@
       <c r="U56" s="11">
         <v>2006</v>
       </c>
-      <c r="V56" s="15" t="s">
+      <c r="V56" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W56" s="11">
         <v>2006</v>
       </c>
-      <c r="X56" s="15" t="s">
+      <c r="X56" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y56" s="13">
         <v>2006</v>
       </c>
-      <c r="Z56" s="15" t="s">
+      <c r="Z56" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA56" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB56" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="15" t="s">
+      <c r="AB56" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE56" s="16" t="s">
+      <c r="AE56" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
         <v>226</v>
@@ -7215,15 +7346,15 @@
         <v>260</v>
       </c>
       <c r="P57" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q57" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q57" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R57" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S57" s="12" t="s">
+      <c r="R57" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S57" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T57" s="6" t="s">
@@ -7232,41 +7363,41 @@
       <c r="U57" s="11">
         <v>2006</v>
       </c>
-      <c r="V57" s="12" t="s">
+      <c r="V57" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W57" s="11">
         <v>2006</v>
       </c>
-      <c r="X57" s="12" t="s">
+      <c r="X57" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y57" s="13">
         <v>2006</v>
       </c>
-      <c r="Z57" s="12" t="s">
+      <c r="Z57" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA57" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB57" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12" t="s">
+      <c r="AB57" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE57" s="14" t="s">
+      <c r="AE57" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
         <v>226</v>
@@ -7308,15 +7439,15 @@
         <v>260</v>
       </c>
       <c r="P58" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q58" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R58" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S58" s="15" t="s">
+      <c r="R58" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S58" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T58" s="6" t="s">
@@ -7325,41 +7456,41 @@
       <c r="U58" s="11">
         <v>2006</v>
       </c>
-      <c r="V58" s="15" t="s">
+      <c r="V58" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W58" s="11">
         <v>2006</v>
       </c>
-      <c r="X58" s="15" t="s">
+      <c r="X58" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y58" s="13">
         <v>2006</v>
       </c>
-      <c r="Z58" s="15" t="s">
+      <c r="Z58" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA58" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB58" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="15" t="s">
+      <c r="AB58" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE58" s="16" t="s">
+      <c r="AE58" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
         <v>226</v>
@@ -7401,15 +7532,15 @@
         <v>260</v>
       </c>
       <c r="P59" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q59" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q59" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R59" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S59" s="12" t="s">
+      <c r="R59" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S59" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T59" s="6" t="s">
@@ -7418,41 +7549,41 @@
       <c r="U59" s="11">
         <v>2006</v>
       </c>
-      <c r="V59" s="12" t="s">
+      <c r="V59" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W59" s="11">
         <v>2006</v>
       </c>
-      <c r="X59" s="12" t="s">
+      <c r="X59" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y59" s="13">
         <v>2006</v>
       </c>
-      <c r="Z59" s="12" t="s">
+      <c r="Z59" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA59" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB59" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12" t="s">
+      <c r="AB59" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE59" s="14" t="s">
+      <c r="AE59" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
         <v>226</v>
@@ -7494,15 +7625,15 @@
         <v>260</v>
       </c>
       <c r="P60" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q60" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q60" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R60" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S60" s="15" t="s">
+      <c r="R60" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S60" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T60" s="6" t="s">
@@ -7511,41 +7642,41 @@
       <c r="U60" s="11">
         <v>2006</v>
       </c>
-      <c r="V60" s="15" t="s">
+      <c r="V60" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W60" s="11">
         <v>2006</v>
       </c>
-      <c r="X60" s="15" t="s">
+      <c r="X60" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y60" s="13">
         <v>2006</v>
       </c>
-      <c r="Z60" s="15" t="s">
+      <c r="Z60" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA60" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB60" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15" t="s">
+      <c r="AB60" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE60" s="16" t="s">
+      <c r="AE60" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>226</v>
@@ -7587,15 +7718,15 @@
         <v>260</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q61" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q61" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R61" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S61" s="12" t="s">
+      <c r="R61" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S61" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T61" s="6" t="s">
@@ -7604,41 +7735,41 @@
       <c r="U61" s="11">
         <v>2006</v>
       </c>
-      <c r="V61" s="12" t="s">
+      <c r="V61" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W61" s="11">
         <v>2006</v>
       </c>
-      <c r="X61" s="12" t="s">
+      <c r="X61" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y61" s="13">
         <v>2006</v>
       </c>
-      <c r="Z61" s="12" t="s">
+      <c r="Z61" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA61" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB61" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="12" t="s">
+      <c r="AB61" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE61" s="14" t="s">
+      <c r="AE61" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>226</v>
@@ -7680,15 +7811,15 @@
         <v>260</v>
       </c>
       <c r="P62" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q62" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q62" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R62" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S62" s="15" t="s">
+      <c r="R62" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S62" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T62" s="6" t="s">
@@ -7697,41 +7828,41 @@
       <c r="U62" s="11">
         <v>2006</v>
       </c>
-      <c r="V62" s="15" t="s">
+      <c r="V62" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W62" s="11">
         <v>2006</v>
       </c>
-      <c r="X62" s="15" t="s">
+      <c r="X62" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y62" s="13">
         <v>2006</v>
       </c>
-      <c r="Z62" s="15" t="s">
+      <c r="Z62" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA62" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB62" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15" t="s">
+      <c r="AB62" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE62" s="16" t="s">
+      <c r="AE62" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
         <v>226</v>
@@ -7773,15 +7904,15 @@
         <v>260</v>
       </c>
       <c r="P63" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q63" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q63" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R63" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S63" s="12" t="s">
+      <c r="R63" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S63" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T63" s="6" t="s">
@@ -7790,41 +7921,41 @@
       <c r="U63" s="11">
         <v>2006</v>
       </c>
-      <c r="V63" s="12" t="s">
+      <c r="V63" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W63" s="11">
         <v>2006</v>
       </c>
-      <c r="X63" s="12" t="s">
+      <c r="X63" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y63" s="13">
         <v>2006</v>
       </c>
-      <c r="Z63" s="12" t="s">
+      <c r="Z63" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA63" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB63" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12" t="s">
+      <c r="AB63" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE63" s="14" t="s">
+      <c r="AE63" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
         <v>226</v>
@@ -7866,15 +7997,15 @@
         <v>260</v>
       </c>
       <c r="P64" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q64" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q64" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R64" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S64" s="15" t="s">
+      <c r="R64" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S64" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T64" s="6" t="s">
@@ -7883,41 +8014,41 @@
       <c r="U64" s="11">
         <v>2006</v>
       </c>
-      <c r="V64" s="15" t="s">
+      <c r="V64" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W64" s="11">
         <v>2006</v>
       </c>
-      <c r="X64" s="15" t="s">
+      <c r="X64" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y64" s="13">
         <v>2006</v>
       </c>
-      <c r="Z64" s="15" t="s">
+      <c r="Z64" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA64" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB64" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15" t="s">
+      <c r="AB64" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE64" s="16" t="s">
+      <c r="AE64" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
         <v>226</v>
@@ -7959,15 +8090,15 @@
         <v>260</v>
       </c>
       <c r="P65" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q65" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q65" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R65" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S65" s="12" t="s">
+      <c r="R65" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S65" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T65" s="6" t="s">
@@ -7976,41 +8107,41 @@
       <c r="U65" s="11">
         <v>2006</v>
       </c>
-      <c r="V65" s="12" t="s">
+      <c r="V65" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W65" s="11">
         <v>2006</v>
       </c>
-      <c r="X65" s="12" t="s">
+      <c r="X65" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y65" s="13">
         <v>2006</v>
       </c>
-      <c r="Z65" s="12" t="s">
+      <c r="Z65" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA65" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB65" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12" t="s">
+      <c r="AB65" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE65" s="14" t="s">
+      <c r="AE65" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
         <v>226</v>
@@ -8052,15 +8183,15 @@
         <v>260</v>
       </c>
       <c r="P66" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q66" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q66" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R66" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S66" s="15" t="s">
+      <c r="R66" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S66" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T66" s="6" t="s">
@@ -8069,41 +8200,41 @@
       <c r="U66" s="11">
         <v>2006</v>
       </c>
-      <c r="V66" s="15" t="s">
+      <c r="V66" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W66" s="11">
         <v>2006</v>
       </c>
-      <c r="X66" s="15" t="s">
+      <c r="X66" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y66" s="13">
         <v>2006</v>
       </c>
-      <c r="Z66" s="15" t="s">
+      <c r="Z66" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA66" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB66" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="15" t="s">
+      <c r="AB66" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE66" s="16" t="s">
+      <c r="AE66" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>226</v>
@@ -8145,15 +8276,15 @@
         <v>260</v>
       </c>
       <c r="P67" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q67" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q67" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R67" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S67" s="12" t="s">
+      <c r="R67" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S67" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T67" s="6" t="s">
@@ -8162,41 +8293,41 @@
       <c r="U67" s="11">
         <v>2006</v>
       </c>
-      <c r="V67" s="12" t="s">
+      <c r="V67" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W67" s="11">
         <v>2006</v>
       </c>
-      <c r="X67" s="12" t="s">
+      <c r="X67" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y67" s="13">
         <v>2006</v>
       </c>
-      <c r="Z67" s="12" t="s">
+      <c r="Z67" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA67" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB67" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12" t="s">
+      <c r="AB67" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE67" s="14" t="s">
+      <c r="AE67" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>226</v>
@@ -8238,15 +8369,15 @@
         <v>260</v>
       </c>
       <c r="P68" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q68" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q68" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R68" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S68" s="15" t="s">
+      <c r="R68" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S68" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T68" s="6" t="s">
@@ -8255,41 +8386,41 @@
       <c r="U68" s="11">
         <v>2006</v>
       </c>
-      <c r="V68" s="15" t="s">
+      <c r="V68" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W68" s="11">
         <v>2006</v>
       </c>
-      <c r="X68" s="15" t="s">
+      <c r="X68" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y68" s="13">
         <v>2006</v>
       </c>
-      <c r="Z68" s="15" t="s">
+      <c r="Z68" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA68" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB68" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="15" t="s">
+      <c r="AB68" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE68" s="16" t="s">
+      <c r="AE68" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
         <v>226</v>
@@ -8331,15 +8462,15 @@
         <v>260</v>
       </c>
       <c r="P69" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q69" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q69" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R69" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S69" s="12" t="s">
+      <c r="R69" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S69" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T69" s="6" t="s">
@@ -8348,41 +8479,41 @@
       <c r="U69" s="11">
         <v>2006</v>
       </c>
-      <c r="V69" s="12" t="s">
+      <c r="V69" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W69" s="11">
         <v>2006</v>
       </c>
-      <c r="X69" s="12" t="s">
+      <c r="X69" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y69" s="13">
         <v>2006</v>
       </c>
-      <c r="Z69" s="12" t="s">
+      <c r="Z69" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA69" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB69" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12" t="s">
+      <c r="AB69" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE69" s="14" t="s">
+      <c r="AE69" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
         <v>226</v>
@@ -8424,15 +8555,15 @@
         <v>260</v>
       </c>
       <c r="P70" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q70" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q70" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R70" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S70" s="15" t="s">
+      <c r="R70" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S70" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T70" s="6" t="s">
@@ -8441,41 +8572,41 @@
       <c r="U70" s="11">
         <v>2006</v>
       </c>
-      <c r="V70" s="15" t="s">
+      <c r="V70" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W70" s="11">
         <v>2006</v>
       </c>
-      <c r="X70" s="15" t="s">
+      <c r="X70" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y70" s="13">
         <v>2006</v>
       </c>
-      <c r="Z70" s="15" t="s">
+      <c r="Z70" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA70" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB70" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15" t="s">
+      <c r="AB70" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE70" s="16" t="s">
+      <c r="AE70" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
         <v>226</v>
@@ -8517,15 +8648,15 @@
         <v>260</v>
       </c>
       <c r="P71" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q71" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q71" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R71" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S71" s="12" t="s">
+      <c r="R71" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S71" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T71" s="6" t="s">
@@ -8534,41 +8665,41 @@
       <c r="U71" s="11">
         <v>2006</v>
       </c>
-      <c r="V71" s="12" t="s">
+      <c r="V71" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W71" s="11">
         <v>2006</v>
       </c>
-      <c r="X71" s="12" t="s">
+      <c r="X71" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y71" s="13">
         <v>2006</v>
       </c>
-      <c r="Z71" s="12" t="s">
+      <c r="Z71" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA71" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB71" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12" t="s">
+      <c r="AB71" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE71" s="14" t="s">
+      <c r="AE71" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
         <v>226</v>
@@ -8610,15 +8741,15 @@
         <v>260</v>
       </c>
       <c r="P72" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q72" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q72" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R72" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S72" s="15" t="s">
+      <c r="R72" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S72" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T72" s="6" t="s">
@@ -8627,41 +8758,41 @@
       <c r="U72" s="11">
         <v>2006</v>
       </c>
-      <c r="V72" s="15" t="s">
+      <c r="V72" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W72" s="11">
         <v>2006</v>
       </c>
-      <c r="X72" s="15" t="s">
+      <c r="X72" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y72" s="13">
         <v>2006</v>
       </c>
-      <c r="Z72" s="15" t="s">
+      <c r="Z72" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA72" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB72" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15" t="s">
+      <c r="AB72" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE72" s="16" t="s">
+      <c r="AE72" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
         <v>226</v>
@@ -8703,15 +8834,15 @@
         <v>260</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q73" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q73" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="R73" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S73" s="12" t="s">
+      <c r="R73" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S73" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T73" s="6" t="s">
@@ -8720,41 +8851,41 @@
       <c r="U73" s="11">
         <v>2006</v>
       </c>
-      <c r="V73" s="12" t="s">
+      <c r="V73" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W73" s="11">
         <v>2006</v>
       </c>
-      <c r="X73" s="12" t="s">
+      <c r="X73" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y73" s="13">
         <v>2006</v>
       </c>
-      <c r="Z73" s="12" t="s">
+      <c r="Z73" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA73" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB73" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12" t="s">
+      <c r="AB73" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AE73" s="14" t="s">
+      <c r="AE73" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
         <v>226</v>
@@ -8763,28 +8894,28 @@
         <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G74" t="s">
         <v>228</v>
       </c>
       <c r="H74" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I74" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J74">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="K74">
         <v>1350</v>
       </c>
       <c r="L74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M74" t="s">
         <v>254</v>
@@ -8793,64 +8924,61 @@
         <v>228</v>
       </c>
       <c r="O74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P74" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q74" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="R74" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S74" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="R74" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S74" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T74" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U74" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="V74" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W74" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="X74" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y74" s="15">
-        <v>2007</v>
-      </c>
-      <c r="Z74" s="15" t="s">
-        <v>392</v>
+      <c r="U74" s="11">
+        <v>2006</v>
+      </c>
+      <c r="V74" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="W74" s="11">
+        <v>2006</v>
+      </c>
+      <c r="X74" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y74" s="13">
+        <v>2006</v>
+      </c>
+      <c r="Z74" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="AA74" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB74" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE74" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>374</v>
+      <c r="AB74" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE74" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
         <v>226</v>
@@ -8892,49 +9020,49 @@
         <v>259</v>
       </c>
       <c r="P75" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q75" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q75" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="R75" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S75" s="12" t="s">
+      <c r="R75" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S75" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T75" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U75" s="12" t="s">
+      <c r="U75" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V75" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W75" s="12" t="s">
+      <c r="V75" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W75" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X75" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y75" s="12">
+      <c r="X75" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y75" s="15">
         <v>2007</v>
       </c>
-      <c r="Z75" s="12" t="s">
+      <c r="Z75" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA75" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB75" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12" t="s">
+      <c r="AB75" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE75" s="14" t="s">
+      <c r="AE75" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF75" t="s">
@@ -8943,10 +9071,10 @@
     </row>
     <row r="76" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
         <v>226</v>
@@ -8988,49 +9116,49 @@
         <v>259</v>
       </c>
       <c r="P76" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q76" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q76" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="R76" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S76" s="15" t="s">
+      <c r="R76" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S76" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T76" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U76" s="15" t="s">
+      <c r="U76" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="V76" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W76" s="15" t="s">
+      <c r="V76" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W76" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="X76" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y76" s="15">
+      <c r="X76" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y76" s="12">
         <v>2007</v>
       </c>
-      <c r="Z76" s="15" t="s">
+      <c r="Z76" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA76" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB76" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15" t="s">
+      <c r="AB76" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE76" s="16" t="s">
+      <c r="AE76" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF76" t="s">
@@ -9039,10 +9167,10 @@
     </row>
     <row r="77" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
         <v>226</v>
@@ -9084,49 +9212,49 @@
         <v>259</v>
       </c>
       <c r="P77" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q77" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q77" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="R77" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S77" s="12" t="s">
+      <c r="R77" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S77" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T77" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U77" s="12" t="s">
+      <c r="U77" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V77" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W77" s="12" t="s">
+      <c r="V77" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W77" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X77" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y77" s="12">
+      <c r="X77" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y77" s="15">
         <v>2007</v>
       </c>
-      <c r="Z77" s="12" t="s">
+      <c r="Z77" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA77" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB77" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC77" s="12"/>
-      <c r="AD77" s="12" t="s">
+      <c r="AB77" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE77" s="14" t="s">
+      <c r="AE77" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF77" t="s">
@@ -9135,10 +9263,10 @@
     </row>
     <row r="78" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
         <v>226</v>
@@ -9180,49 +9308,49 @@
         <v>259</v>
       </c>
       <c r="P78" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q78" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q78" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="R78" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S78" s="15" t="s">
+      <c r="R78" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S78" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T78" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U78" s="15" t="s">
+      <c r="U78" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="V78" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W78" s="15" t="s">
+      <c r="V78" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W78" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="X78" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y78" s="15">
+      <c r="X78" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y78" s="12">
         <v>2007</v>
       </c>
-      <c r="Z78" s="15" t="s">
+      <c r="Z78" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA78" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB78" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15" t="s">
+      <c r="AB78" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE78" s="16" t="s">
+      <c r="AE78" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF78" t="s">
@@ -9231,10 +9359,10 @@
     </row>
     <row r="79" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
         <v>226</v>
@@ -9276,49 +9404,49 @@
         <v>259</v>
       </c>
       <c r="P79" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q79" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q79" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="R79" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S79" s="12" t="s">
+      <c r="R79" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S79" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T79" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U79" s="12" t="s">
+      <c r="U79" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V79" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W79" s="12" t="s">
+      <c r="V79" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W79" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X79" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y79" s="12">
+      <c r="X79" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y79" s="15">
         <v>2007</v>
       </c>
-      <c r="Z79" s="12" t="s">
+      <c r="Z79" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA79" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB79" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC79" s="12"/>
-      <c r="AD79" s="12" t="s">
+      <c r="AB79" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE79" s="14" t="s">
+      <c r="AE79" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF79" t="s">
@@ -9327,10 +9455,10 @@
     </row>
     <row r="80" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
         <v>226</v>
@@ -9372,49 +9500,49 @@
         <v>259</v>
       </c>
       <c r="P80" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q80" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q80" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="R80" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="S80" s="15" t="s">
+      <c r="R80" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S80" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T80" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U80" s="15" t="s">
+      <c r="U80" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="V80" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="W80" s="15" t="s">
+      <c r="V80" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W80" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="X80" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y80" s="15">
+      <c r="X80" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y80" s="12">
         <v>2007</v>
       </c>
-      <c r="Z80" s="15" t="s">
+      <c r="Z80" s="12" t="s">
         <v>392</v>
       </c>
       <c r="AA80" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB80" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC80" s="15"/>
-      <c r="AD80" s="15" t="s">
+      <c r="AB80" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AE80" s="16" t="s">
+      <c r="AE80" s="14" t="s">
         <v>392</v>
       </c>
       <c r="AF80" t="s">
@@ -9423,10 +9551,10 @@
     </row>
     <row r="81" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
         <v>226</v>
@@ -9468,49 +9596,49 @@
         <v>259</v>
       </c>
       <c r="P81" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q81" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q81" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="R81" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="S81" s="12" t="s">
+      <c r="R81" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="S81" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T81" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U81" s="12" t="s">
+      <c r="U81" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V81" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="W81" s="12" t="s">
+      <c r="V81" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="W81" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X81" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y81" s="12">
+      <c r="X81" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y81" s="15">
         <v>2007</v>
       </c>
-      <c r="Z81" s="12" t="s">
+      <c r="Z81" s="15" t="s">
         <v>392</v>
       </c>
       <c r="AA81" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB81" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC81" s="12"/>
-      <c r="AD81" s="12" t="s">
+      <c r="AB81" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="AE81" s="14" t="s">
+      <c r="AE81" s="16" t="s">
         <v>392</v>
       </c>
       <c r="AF81" t="s">
@@ -9519,10 +9647,10 @@
     </row>
     <row r="82" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
         <v>226</v>
@@ -9531,91 +9659,94 @@
         <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F82" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G82" t="s">
         <v>228</v>
       </c>
       <c r="H82" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="I82" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="J82">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="K82">
         <v>1350</v>
       </c>
       <c r="L82" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M82" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N82" t="s">
         <v>228</v>
       </c>
       <c r="O82" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P82" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q82" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="R82" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S82" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q82" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="S82" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T82" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="U82" s="11">
-        <v>1986</v>
-      </c>
-      <c r="V82" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="W82" s="11">
-        <v>1986</v>
-      </c>
-      <c r="X82" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y82" s="13">
-        <v>1986</v>
-      </c>
-      <c r="Z82" s="15" t="s">
-        <v>393</v>
+      <c r="U82" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="V82" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="W82" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="X82" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y82" s="12">
+        <v>2007</v>
+      </c>
+      <c r="Z82" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB82" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC82" s="15"/>
-      <c r="AD82" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE82" s="16" t="s">
-        <v>392</v>
+        <v>255</v>
+      </c>
+      <c r="AB82" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE82" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" t="s">
         <v>226</v>
@@ -9657,15 +9788,15 @@
         <v>262</v>
       </c>
       <c r="P83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q83" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S83" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="R83" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S83" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T83" s="6" t="s">
@@ -9674,41 +9805,41 @@
       <c r="U83" s="11">
         <v>1986</v>
       </c>
-      <c r="V83" s="12" t="s">
+      <c r="V83" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W83" s="11">
         <v>1986</v>
       </c>
-      <c r="X83" s="12" t="s">
+      <c r="X83" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y83" s="13">
         <v>1986</v>
       </c>
-      <c r="Z83" s="12" t="s">
+      <c r="Z83" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA83" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB83" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC83" s="12"/>
-      <c r="AD83" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB83" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE83" s="14" t="s">
+      <c r="AE83" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
         <v>226</v>
@@ -9750,15 +9881,15 @@
         <v>262</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q84" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="R84" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S84" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S84" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T84" s="6" t="s">
@@ -9767,41 +9898,41 @@
       <c r="U84" s="11">
         <v>1986</v>
       </c>
-      <c r="V84" s="15" t="s">
+      <c r="V84" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W84" s="11">
         <v>1986</v>
       </c>
-      <c r="X84" s="15" t="s">
+      <c r="X84" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y84" s="13">
         <v>1986</v>
       </c>
-      <c r="Z84" s="15" t="s">
+      <c r="Z84" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA84" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB84" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC84" s="15"/>
-      <c r="AD84" s="15" t="s">
+      <c r="AB84" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE84" s="16" t="s">
+      <c r="AE84" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
         <v>226</v>
@@ -9843,15 +9974,15 @@
         <v>262</v>
       </c>
       <c r="P85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q85" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="R85" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S85" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="R85" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S85" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T85" s="6" t="s">
@@ -9860,46 +9991,41 @@
       <c r="U85" s="11">
         <v>1986</v>
       </c>
-      <c r="V85" s="12" t="s">
+      <c r="V85" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W85" s="11">
         <v>1986</v>
       </c>
-      <c r="X85" s="12" t="s">
+      <c r="X85" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y85" s="13">
         <v>1986</v>
       </c>
-      <c r="Z85" s="12" t="s">
+      <c r="Z85" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AA85" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB85" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC85" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD85" s="12" t="s">
+      <c r="AA85" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB85" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE85" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>376</v>
+      <c r="AE85" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
         <v>226</v>
@@ -9941,58 +10067,63 @@
         <v>262</v>
       </c>
       <c r="P86" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q86" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="R86" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S86" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S86" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T86" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U86" s="11">
-        <v>1987</v>
-      </c>
-      <c r="V86" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="V86" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W86" s="11">
-        <v>1987</v>
-      </c>
-      <c r="X86" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="X86" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y86" s="13">
-        <v>1987</v>
-      </c>
-      <c r="Z86" s="15" t="s">
+        <v>1986</v>
+      </c>
+      <c r="Z86" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AA86" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB86" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC86" s="15"/>
-      <c r="AD86" s="15" t="s">
+      <c r="AA86" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB86" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC86" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD86" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE86" s="16" t="s">
-        <v>392</v>
+      <c r="AE86" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
         <v>226</v>
@@ -10034,58 +10165,58 @@
         <v>262</v>
       </c>
       <c r="P87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="R87" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S87" s="12" t="s">
+      <c r="R87" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S87" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T87" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U87" s="11">
-        <v>1988</v>
-      </c>
-      <c r="V87" s="12" t="s">
+        <v>1987</v>
+      </c>
+      <c r="V87" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W87" s="11">
-        <v>1988</v>
-      </c>
-      <c r="X87" s="12" t="s">
+        <v>1987</v>
+      </c>
+      <c r="X87" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y87" s="13">
-        <v>1988</v>
-      </c>
-      <c r="Z87" s="12" t="s">
+        <v>1987</v>
+      </c>
+      <c r="Z87" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA87" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB87" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC87" s="12"/>
-      <c r="AD87" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB87" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE87" s="14" t="s">
+      <c r="AE87" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
         <v>226</v>
@@ -10127,15 +10258,15 @@
         <v>262</v>
       </c>
       <c r="P88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q88" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="R88" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S88" s="15" t="s">
+      <c r="R88" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S88" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T88" s="6" t="s">
@@ -10144,44 +10275,41 @@
       <c r="U88" s="11">
         <v>1988</v>
       </c>
-      <c r="V88" s="15" t="s">
+      <c r="V88" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W88" s="11">
         <v>1988</v>
       </c>
-      <c r="X88" s="15" t="s">
+      <c r="X88" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y88" s="13">
         <v>1988</v>
       </c>
-      <c r="Z88" s="15" t="s">
+      <c r="Z88" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AA88" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB88" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC88" s="15"/>
-      <c r="AD88" s="15" t="s">
+      <c r="AA88" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB88" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE88" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>377</v>
+      <c r="AE88" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
         <v>226</v>
@@ -10223,58 +10351,61 @@
         <v>262</v>
       </c>
       <c r="P89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q89" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="R89" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S89" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="R89" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S89" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T89" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U89" s="11">
-        <v>1989</v>
-      </c>
-      <c r="V89" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="V89" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W89" s="11">
-        <v>1989</v>
-      </c>
-      <c r="X89" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="X89" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y89" s="13">
-        <v>1989</v>
-      </c>
-      <c r="Z89" s="12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="Z89" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AA89" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB89" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC89" s="12"/>
-      <c r="AD89" s="12" t="s">
+      <c r="AA89" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB89" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE89" s="14" t="s">
-        <v>392</v>
+      <c r="AE89" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
         <v>226</v>
@@ -10316,59 +10447,58 @@
         <v>262</v>
       </c>
       <c r="P90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q90" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="R90" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S90" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S90" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T90" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U90" s="11">
-        <v>1990</v>
-      </c>
-      <c r="V90" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="V90" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W90" s="11">
-        <v>1990</v>
-      </c>
-      <c r="X90" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="X90" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y90" s="13">
-        <v>1990</v>
-      </c>
-      <c r="Z90" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="Z90" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA90" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB90" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15" t="s">
+      <c r="AB90" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE90" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF90" s="1"/>
+      <c r="AE90" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="91" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
         <v>226</v>
@@ -10410,15 +10540,15 @@
         <v>262</v>
       </c>
       <c r="P91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q91" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="R91" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="R91" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S91" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T91" s="6" t="s">
@@ -10427,41 +10557,42 @@
       <c r="U91" s="11">
         <v>1990</v>
       </c>
-      <c r="V91" s="12" t="s">
+      <c r="V91" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W91" s="11">
         <v>1990</v>
       </c>
-      <c r="X91" s="12" t="s">
+      <c r="X91" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y91" s="13">
         <v>1990</v>
       </c>
-      <c r="Z91" s="12" t="s">
+      <c r="Z91" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA91" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB91" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC91" s="12"/>
-      <c r="AD91" s="12" t="s">
+      <c r="AB91" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE91" s="14" t="s">
-        <v>392</v>
-      </c>
+      <c r="AE91" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF91" s="1"/>
     </row>
     <row r="92" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
         <v>226</v>
@@ -10503,61 +10634,58 @@
         <v>262</v>
       </c>
       <c r="P92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q92" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="R92" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S92" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S92" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T92" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U92" s="11">
-        <v>1992</v>
-      </c>
-      <c r="V92" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V92" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W92" s="11">
-        <v>1992</v>
-      </c>
-      <c r="X92" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="X92" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y92" s="13">
-        <v>1992</v>
-      </c>
-      <c r="Z92" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="Z92" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA92" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB92" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC92" s="15"/>
-      <c r="AD92" s="15" t="s">
+      <c r="AB92" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE92" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>378</v>
+      <c r="AE92" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
         <v>226</v>
@@ -10599,58 +10727,61 @@
         <v>262</v>
       </c>
       <c r="P93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q93" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="R93" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S93" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="R93" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S93" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T93" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U93" s="11">
-        <v>1990</v>
-      </c>
-      <c r="V93" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="V93" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W93" s="11">
-        <v>1990</v>
-      </c>
-      <c r="X93" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="X93" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y93" s="13">
-        <v>1990</v>
-      </c>
-      <c r="Z93" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Z93" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA93" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB93" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC93" s="12"/>
-      <c r="AD93" s="12" t="s">
+      <c r="AB93" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE93" s="14" t="s">
-        <v>392</v>
+      <c r="AE93" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -10692,58 +10823,58 @@
         <v>262</v>
       </c>
       <c r="P94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q94" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="R94" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S94" s="15" t="s">
+      <c r="R94" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S94" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T94" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U94" s="11">
-        <v>1992</v>
-      </c>
-      <c r="V94" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="V94" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W94" s="11">
-        <v>1992</v>
-      </c>
-      <c r="X94" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="X94" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y94" s="13">
-        <v>1992</v>
-      </c>
-      <c r="Z94" s="15" t="s">
+        <v>1990</v>
+      </c>
+      <c r="Z94" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA94" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB94" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC94" s="15"/>
-      <c r="AD94" s="15" t="s">
+      <c r="AB94" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE94" s="16" t="s">
+      <c r="AE94" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -10767,76 +10898,76 @@
         <v>228</v>
       </c>
       <c r="J95">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="K95">
-        <v>921</v>
+        <v>1350</v>
       </c>
       <c r="L95" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N95" t="s">
         <v>228</v>
       </c>
       <c r="O95" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="Q95" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="R95" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S95" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="R95" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S95" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T95" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U95" s="11">
-        <v>1996</v>
-      </c>
-      <c r="V95" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="V95" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W95" s="11">
-        <v>1996</v>
-      </c>
-      <c r="X95" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="X95" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y95" s="13">
-        <v>1996</v>
-      </c>
-      <c r="Z95" s="12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Z95" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA95" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB95" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC95" s="12"/>
-      <c r="AD95" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE95" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB95" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE95" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
         <v>226</v>
@@ -10878,58 +11009,58 @@
         <v>258</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="R96" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S96" s="15" t="s">
+      <c r="R96" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S96" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T96" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U96" s="11">
-        <v>2001</v>
-      </c>
-      <c r="V96" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="V96" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W96" s="11">
-        <v>2001</v>
-      </c>
-      <c r="X96" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="X96" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y96" s="13">
-        <v>2001</v>
-      </c>
-      <c r="Z96" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Z96" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA96" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="AB96" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC96" s="15"/>
-      <c r="AD96" s="15" t="s">
+      <c r="AB96" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="AE96" s="16" t="s">
+      <c r="AE96" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
         <v>226</v>
@@ -10953,76 +11084,76 @@
         <v>228</v>
       </c>
       <c r="J97">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="K97">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N97" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="O97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q97" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="R97" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S97" s="12" t="s">
+      <c r="R97" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S97" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T97" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U97" s="11">
-        <v>1996</v>
-      </c>
-      <c r="V97" s="12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="V97" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W97" s="11">
-        <v>1996</v>
-      </c>
-      <c r="X97" s="12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="X97" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y97" s="13">
-        <v>1996</v>
-      </c>
-      <c r="Z97" s="12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="Z97" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AA97" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB97" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC97" s="12"/>
-      <c r="AD97" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE97" s="14" t="s">
+      <c r="AA97" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB97" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE97" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
         <v>226</v>
@@ -11064,58 +11195,58 @@
         <v>257</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="R98" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S98" s="15" t="s">
+      <c r="R98" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S98" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T98" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U98" s="11">
-        <v>1997</v>
-      </c>
-      <c r="V98" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="V98" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W98" s="11">
-        <v>1997</v>
-      </c>
-      <c r="X98" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="X98" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y98" s="13">
-        <v>1997</v>
-      </c>
-      <c r="Z98" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Z98" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AA98" s="15" t="s">
+      <c r="AA98" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="AB98" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC98" s="15"/>
-      <c r="AD98" s="15" t="s">
+      <c r="AB98" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="AE98" s="16" t="s">
+      <c r="AE98" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>226</v>
@@ -11139,76 +11270,76 @@
         <v>228</v>
       </c>
       <c r="J99">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K99">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="L99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N99" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="R99" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S99" s="12" t="s">
+      <c r="R99" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S99" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T99" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U99" s="11">
-        <v>1996</v>
-      </c>
-      <c r="V99" s="12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="V99" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W99" s="11">
-        <v>1996</v>
-      </c>
-      <c r="X99" s="12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="X99" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y99" s="13">
-        <v>1996</v>
-      </c>
-      <c r="Z99" s="12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Z99" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="AA99" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB99" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE99" s="14" t="s">
+      <c r="AA99" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB99" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE99" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
         <v>226</v>
@@ -11232,76 +11363,76 @@
         <v>228</v>
       </c>
       <c r="J100">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="K100">
         <v>400</v>
       </c>
       <c r="L100" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M100" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N100" t="s">
         <v>228</v>
       </c>
       <c r="O100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P100" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="R100" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S100" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="R100" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S100" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T100" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U100" s="11">
-        <v>1975</v>
-      </c>
-      <c r="V100" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="V100" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W100" s="11">
-        <v>1975</v>
-      </c>
-      <c r="X100" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="X100" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y100" s="13">
-        <v>1975</v>
-      </c>
-      <c r="Z100" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="Z100" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB100" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC100" s="15"/>
-      <c r="AD100" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE100" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB100" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE100" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
         <v>226</v>
@@ -11343,58 +11474,58 @@
         <v>262</v>
       </c>
       <c r="P101" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q101" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="R101" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="R101" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S101" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T101" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U101" s="11">
-        <v>1992</v>
-      </c>
-      <c r="V101" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="V101" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W101" s="11">
-        <v>1992</v>
-      </c>
-      <c r="X101" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="X101" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y101" s="13">
-        <v>1992</v>
-      </c>
-      <c r="Z101" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Z101" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA101" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB101" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC101" s="12"/>
-      <c r="AD101" s="12" t="s">
+      <c r="AB101" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE101" s="14" t="s">
+      <c r="AE101" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
         <v>226</v>
@@ -11436,58 +11567,58 @@
         <v>262</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q102" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="R102" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S102" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="R102" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S102" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T102" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U102" s="11">
-        <v>1993</v>
-      </c>
-      <c r="V102" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="V102" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W102" s="11">
-        <v>1993</v>
-      </c>
-      <c r="X102" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="X102" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y102" s="13">
-        <v>1993</v>
-      </c>
-      <c r="Z102" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Z102" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA102" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB102" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC102" s="15"/>
-      <c r="AD102" s="15" t="s">
+      <c r="AB102" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AE102" s="16" t="s">
+      <c r="AE102" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
         <v>226</v>
@@ -11529,58 +11660,58 @@
         <v>262</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q103" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="R103" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="S103" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="R103" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S103" s="15" t="s">
         <v>228</v>
       </c>
       <c r="T103" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U103" s="11">
-        <v>1991</v>
-      </c>
-      <c r="V103" s="12" t="s">
+        <v>1993</v>
+      </c>
+      <c r="V103" s="15" t="s">
         <v>391</v>
       </c>
       <c r="W103" s="11">
-        <v>1991</v>
-      </c>
-      <c r="X103" s="12" t="s">
+        <v>1993</v>
+      </c>
+      <c r="X103" s="15" t="s">
         <v>391</v>
       </c>
       <c r="Y103" s="13">
-        <v>1991</v>
-      </c>
-      <c r="Z103" s="12" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Z103" s="15" t="s">
         <v>393</v>
       </c>
       <c r="AA103" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AB103" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC103" s="12"/>
-      <c r="AD103" s="12" t="s">
+      <c r="AB103" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="AE103" s="14" t="s">
+      <c r="AE103" s="16" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
         <v>226</v>
@@ -11604,76 +11735,76 @@
         <v>228</v>
       </c>
       <c r="J104">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="K104">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="L104" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N104" t="s">
         <v>228</v>
       </c>
       <c r="O104" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="Q104" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="R104" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="S104" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="R104" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="S104" s="12" t="s">
         <v>228</v>
       </c>
       <c r="T104" s="6" t="s">
         <v>392</v>
       </c>
       <c r="U104" s="11">
-        <v>2001</v>
-      </c>
-      <c r="V104" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="V104" s="12" t="s">
         <v>391</v>
       </c>
       <c r="W104" s="11">
-        <v>2001</v>
-      </c>
-      <c r="X104" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="X104" s="12" t="s">
         <v>391</v>
       </c>
       <c r="Y104" s="13">
-        <v>2001</v>
-      </c>
-      <c r="Z104" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="Z104" s="12" t="s">
         <v>393</v>
       </c>
       <c r="AA104" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB104" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC104" s="15"/>
-      <c r="AD104" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE104" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB104" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE104" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
         <v>226</v>
@@ -11682,10 +11813,10 @@
         <v>227</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F105" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G105" t="s">
         <v>228</v>
@@ -11697,88 +11828,165 @@
         <v>228</v>
       </c>
       <c r="J105">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="K105">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="L105" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M105" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N105" t="s">
         <v>228</v>
       </c>
       <c r="O105" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P105" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q105" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="R105" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="S105" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="T105" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="U105" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="V105" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="W105" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="X105" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y105" s="19">
-        <v>2016</v>
-      </c>
-      <c r="Z105" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA105" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB105" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC105" s="19"/>
-      <c r="AD105" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE105" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>381</v>
+        <v>270</v>
+      </c>
+      <c r="Q105" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="R105" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S105" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="U105" s="11">
+        <v>2001</v>
+      </c>
+      <c r="V105" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="W105" s="11">
+        <v>2001</v>
+      </c>
+      <c r="X105" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y105" s="13">
+        <v>2001</v>
+      </c>
+      <c r="Z105" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA105" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB105" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC105" s="15"/>
+      <c r="AD105" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE105" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="5"/>
-      <c r="AC106" s="5"/>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="5"/>
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" t="s">
+        <v>238</v>
+      </c>
+      <c r="G106" t="s">
+        <v>228</v>
+      </c>
+      <c r="H106" t="s">
+        <v>228</v>
+      </c>
+      <c r="I106" t="s">
+        <v>228</v>
+      </c>
+      <c r="J106">
+        <v>2016</v>
+      </c>
+      <c r="K106">
+        <v>211</v>
+      </c>
+      <c r="L106" t="s">
+        <v>249</v>
+      </c>
+      <c r="M106" t="s">
+        <v>249</v>
+      </c>
+      <c r="N106" t="s">
+        <v>228</v>
+      </c>
+      <c r="O106" t="s">
+        <v>261</v>
+      </c>
+      <c r="P106" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q106" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="R106" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="S106" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="T106" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="U106" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V106" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="W106" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="X106" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y106" s="19">
+        <v>2016</v>
+      </c>
+      <c r="Z106" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA106" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB106" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE106" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="Q107" s="5"/>
@@ -11796,12 +12004,36 @@
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
     </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="R1:R105 V1:V105 AB1:AC105 AE1:AE105 T1:T105 X1:X105 Z1:Z105 AF1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="R2:R106 V2:V106 AB2:AC106 AE2:AE106 T2:T106 X2:X106 Z2:Z106 AF2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"filled in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1 T1 V1 X1 Z1 AB1 AE1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
